--- a/monks_import_template.xlsx
+++ b/monks_import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\temples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF62363C-8304-4EBF-A993-D595CD4DC7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2267BAD0-C556-4379-B392-D096EE1D1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="96">
   <si>
     <t>ແມ່ແບບນຳເຂົ້າຂໍ້ມູນພະສົງ</t>
   </si>
@@ -316,7 +316,13 @@
     <t>ພຣະລູກວັດ</t>
   </si>
   <si>
-    <t>ວັດປ່າຣັຕຕະນະຄິຣິວິຫານ</t>
+    <t>ວັດຈອມທອງ</t>
+  </si>
+  <si>
+    <t>ວັດດອນແດງ</t>
+  </si>
+  <si>
+    <t>ວັດຂົວຫຼວງ</t>
   </si>
 </sst>
 </file>
@@ -808,7 +814,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5:H24"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1174,7 @@
         <v>38481</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>72</v>
@@ -1212,7 +1218,7 @@
         <v>38482</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>73</v>
@@ -1256,7 +1262,7 @@
         <v>38483</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>74</v>
@@ -1300,7 +1306,7 @@
         <v>38484</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>75</v>
@@ -1344,7 +1350,7 @@
         <v>38485</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>76</v>
@@ -1388,7 +1394,7 @@
         <v>38486</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>77</v>
@@ -1432,7 +1438,7 @@
         <v>38487</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>78</v>
@@ -1476,7 +1482,7 @@
         <v>38488</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>79</v>
@@ -1520,7 +1526,7 @@
         <v>38489</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>80</v>
@@ -1564,7 +1570,7 @@
         <v>38490</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>81</v>
@@ -1608,7 +1614,7 @@
         <v>38491</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>82</v>
@@ -1652,7 +1658,7 @@
         <v>38492</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>83</v>
@@ -1696,7 +1702,7 @@
         <v>38493</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>84</v>
@@ -1740,7 +1746,7 @@
         <v>38494</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>85</v>
@@ -1784,7 +1790,7 @@
         <v>38495</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>86</v>
